--- a/gemma2_translation_test/input.xlsx
+++ b/gemma2_translation_test/input.xlsx
@@ -467,7 +467,7 @@
       </c>
       <c r="B2" s="6" t="inlineStr">
         <is>
-          <t xml:space="preserve">太陽は東に昇る。 </t>
+          <t>太陽は東から昇ります。</t>
         </is>
       </c>
     </row>
@@ -479,7 +479,7 @@
       </c>
       <c r="B3" s="6" t="inlineStr">
         <is>
-          <t xml:space="preserve">彼女は本を読むのが好きだ。 </t>
+          <t>彼女は本を読むのが好きです。</t>
         </is>
       </c>
     </row>
@@ -491,7 +491,7 @@
       </c>
       <c r="B4" s="6" t="inlineStr">
         <is>
-          <t xml:space="preserve">彼は才能ある音楽家です。 </t>
+          <t>彼は才能ある音楽家です。</t>
         </is>
       </c>
     </row>
@@ -503,7 +503,7 @@
       </c>
       <c r="B5" s="6" t="inlineStr">
         <is>
-          <t xml:space="preserve">彼らは昨日公園に行きました。 </t>
+          <t>彼らは昨日公園に行きました。</t>
         </is>
       </c>
     </row>
@@ -515,7 +515,7 @@
       </c>
       <c r="B6" s="6" t="inlineStr">
         <is>
-          <t xml:space="preserve">猫はソファで寝ている。 </t>
+          <t>猫はソファで寝ています。</t>
         </is>
       </c>
     </row>
@@ -527,7 +527,7 @@
       </c>
       <c r="B7" s="6" t="inlineStr">
         <is>
-          <t xml:space="preserve">6. イタリア料理を作るのが好きだ。 </t>
+          <t xml:space="preserve">6. イタリア料理を調理するのが好きです。 &lt;/start_of_turn&gt; </t>
         </is>
       </c>
     </row>
@@ -539,7 +539,7 @@
       </c>
       <c r="B8" s="6" t="inlineStr">
         <is>
-          <t xml:space="preserve">ヨーロッパ旅行を計画しています。 </t>
+          <t>ヨーロッパ旅行を計画中です。</t>
         </is>
       </c>
     </row>
@@ -551,7 +551,7 @@
       </c>
       <c r="B9" s="6" t="inlineStr">
         <is>
-          <t xml:space="preserve">映画は非常に面白かったです。 </t>
+          <t>映画は非常に面白かったです。</t>
         </is>
       </c>
     </row>
@@ -563,7 +563,7 @@
       </c>
       <c r="B10" s="6" t="inlineStr">
         <is>
-          <t xml:space="preserve">彼女は美しい歌声が素晴らしい。 </t>
+          <t>彼女は美しい歌声を持っている。</t>
         </is>
       </c>
     </row>
@@ -575,7 +575,7 @@
       </c>
       <c r="B11" s="6" t="inlineStr">
         <is>
-          <t xml:space="preserve">彼はソフトウェアエンジニアとして働いています。 </t>
+          <t>彼はソフトウェアエンジニアとして働いている。</t>
         </is>
       </c>
     </row>
